--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 0 (41, 8, 15, 16, 33)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(41, 8, 15, 16, 33)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999392151</v>
+        <v>0.999999089123995</v>
       </c>
       <c r="E2">
-        <v>0.9999999999392151</v>
+        <v>0.999999089123995</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5.385401022732958E-16</v>
+        <v>0.9978621195641789</v>
       </c>
       <c r="E3">
-        <v>5.385401022732958E-16</v>
+        <v>0.9978621195641789</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004471120176254898</v>
+        <v>0.9999998599473182</v>
       </c>
       <c r="E4">
-        <v>0.004471120176254898</v>
+        <v>0.9999998599473182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9850066527737183</v>
+        <v>0.009823860515630559</v>
       </c>
       <c r="E5">
-        <v>0.9850066527737183</v>
+        <v>0.009823860515630559</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.090107390316747E-07</v>
+        <v>0.00095296686483922</v>
       </c>
       <c r="E6">
-        <v>2.090107390316747E-07</v>
+        <v>0.00095296686483922</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.934859991089504E-07</v>
+        <v>2.46980613245879E-17</v>
       </c>
       <c r="E7">
-        <v>0.9999998065140009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999869069</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1.30930821740094E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.156831958944589E-09</v>
+        <v>0.001559825461911348</v>
       </c>
       <c r="E9">
-        <v>0.9999999938431681</v>
+        <v>0.9984401745380886</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9999999999727156</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.7284396963978E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999843594</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E11">
-        <v>1.564059992631428E-11</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="F11">
-        <v>6.209207057952881</v>
+        <v>8.05518627166748</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
